--- a/src/test/java/dataEngine/Shakedown 7.1.xlsx
+++ b/src/test/java/dataEngine/Shakedown 7.1.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
+    <workbookView windowHeight="10290" windowWidth="18195" xWindow="240" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Steps" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="438">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1336,6 +1336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1398,35 +1399,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1440,10 +1441,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1601,7 +1602,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1610,13 +1611,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1626,7 +1627,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1635,7 +1636,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1644,7 +1645,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1654,12 +1655,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1690,7 +1691,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1709,7 +1710,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1721,8 +1722,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K351"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
       <selection activeCell="J349" sqref="J349"/>
@@ -1730,15 +1731,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="39.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1770,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>435</v>
       </c>
@@ -1789,8 +1790,11 @@
       <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>435</v>
       </c>
@@ -1812,8 +1816,11 @@
       <c r="H3" s="7" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>435</v>
       </c>
@@ -1832,8 +1839,11 @@
       <c r="H4" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>435</v>
       </c>
@@ -1852,8 +1862,11 @@
       <c r="H5" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>435</v>
       </c>
@@ -1872,8 +1885,11 @@
       <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>435</v>
       </c>
@@ -1892,8 +1908,11 @@
       <c r="H7" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="8" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>435</v>
       </c>
@@ -1912,8 +1931,11 @@
       <c r="H8" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>435</v>
       </c>
@@ -1932,8 +1954,11 @@
       <c r="H9" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -1952,8 +1977,11 @@
       <c r="H10" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>435</v>
       </c>
@@ -1972,8 +2000,11 @@
       <c r="H11" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="12" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>435</v>
       </c>
@@ -1992,8 +2023,11 @@
       <c r="H12" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="13" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>435</v>
       </c>
@@ -2012,8 +2046,11 @@
       <c r="H13" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="14" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>435</v>
       </c>
@@ -2032,8 +2069,11 @@
       <c r="H14" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>435</v>
       </c>
@@ -2052,8 +2092,11 @@
       <c r="H15" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>435</v>
       </c>
@@ -2073,7 +2116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>435</v>
       </c>
@@ -2093,7 +2136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>435</v>
       </c>
@@ -2113,7 +2156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>435</v>
       </c>
@@ -2133,7 +2176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>435</v>
       </c>
@@ -2153,7 +2196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>435</v>
       </c>
@@ -2173,7 +2216,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>435</v>
       </c>
@@ -2193,7 +2236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>435</v>
       </c>
@@ -2213,7 +2256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>435</v>
       </c>
@@ -2233,7 +2276,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>435</v>
       </c>
@@ -2253,7 +2296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>435</v>
       </c>
@@ -2273,7 +2316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>435</v>
       </c>
@@ -2293,7 +2336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>435</v>
       </c>
@@ -2313,7 +2356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>435</v>
       </c>
@@ -2333,7 +2376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>435</v>
       </c>
@@ -2353,7 +2396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>435</v>
       </c>
@@ -2373,7 +2416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>435</v>
       </c>
@@ -2396,7 +2439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>435</v>
       </c>
@@ -2416,7 +2459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>435</v>
       </c>
@@ -2436,7 +2479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>435</v>
       </c>
@@ -2456,7 +2499,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>435</v>
       </c>
@@ -2476,7 +2519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>435</v>
       </c>
@@ -2496,7 +2539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>435</v>
       </c>
@@ -2516,7 +2559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>435</v>
       </c>
@@ -2536,7 +2579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>435</v>
       </c>
@@ -2556,7 +2599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>435</v>
       </c>
@@ -2576,7 +2619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>435</v>
       </c>
@@ -2596,7 +2639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>435</v>
       </c>
@@ -2616,7 +2659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>435</v>
       </c>
@@ -2636,7 +2679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>435</v>
       </c>
@@ -2656,7 +2699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>435</v>
       </c>
@@ -2676,7 +2719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>435</v>
       </c>
@@ -2696,7 +2739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>435</v>
       </c>
@@ -2716,7 +2759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>435</v>
       </c>
@@ -2736,7 +2779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>435</v>
       </c>
@@ -2756,7 +2799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>435</v>
       </c>
@@ -2776,7 +2819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>435</v>
       </c>
@@ -2796,7 +2839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>435</v>
       </c>
@@ -2816,7 +2859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>435</v>
       </c>
@@ -2836,7 +2879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>435</v>
       </c>
@@ -2856,7 +2899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>435</v>
       </c>
@@ -2876,7 +2919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>435</v>
       </c>
@@ -2896,7 +2939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>435</v>
       </c>
@@ -2916,7 +2959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>435</v>
       </c>
@@ -2936,7 +2979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>435</v>
       </c>
@@ -2956,7 +2999,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>435</v>
       </c>
@@ -2976,7 +3019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>435</v>
       </c>
@@ -2996,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>435</v>
       </c>
@@ -3016,7 +3059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>435</v>
       </c>
@@ -3036,7 +3079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>435</v>
       </c>
@@ -3056,7 +3099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>435</v>
       </c>
@@ -3076,7 +3119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>435</v>
       </c>
@@ -3096,7 +3139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>435</v>
       </c>
@@ -3116,7 +3159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>435</v>
       </c>
@@ -3137,7 +3180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>435</v>
       </c>
@@ -3157,7 +3200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>435</v>
       </c>
@@ -3180,7 +3223,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>435</v>
       </c>
@@ -3200,7 +3243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>435</v>
       </c>
@@ -3220,7 +3263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>435</v>
       </c>
@@ -3240,7 +3283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>435</v>
       </c>
@@ -3260,7 +3303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>435</v>
       </c>
@@ -3280,7 +3323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>435</v>
       </c>
@@ -3300,7 +3343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>435</v>
       </c>
@@ -3320,7 +3363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>435</v>
       </c>
@@ -3340,7 +3383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>435</v>
       </c>
@@ -3360,7 +3403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>435</v>
       </c>
@@ -3380,7 +3423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>435</v>
       </c>
@@ -3400,7 +3443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>435</v>
       </c>
@@ -3420,7 +3463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>435</v>
       </c>
@@ -3440,7 +3483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>435</v>
       </c>
@@ -3460,7 +3503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>435</v>
       </c>
@@ -3480,7 +3523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>435</v>
       </c>
@@ -3500,7 +3543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>435</v>
       </c>
@@ -3520,7 +3563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>435</v>
       </c>
@@ -3540,7 +3583,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>435</v>
       </c>
@@ -3560,7 +3603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>435</v>
       </c>
@@ -3580,7 +3623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>435</v>
       </c>
@@ -3600,7 +3643,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>435</v>
       </c>
@@ -3620,7 +3663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>435</v>
       </c>
@@ -3640,7 +3683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>435</v>
       </c>
@@ -3660,7 +3703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>435</v>
       </c>
@@ -3680,7 +3723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>435</v>
       </c>
@@ -3700,7 +3743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>435</v>
       </c>
@@ -3720,7 +3763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>435</v>
       </c>
@@ -3740,7 +3783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>435</v>
       </c>
@@ -3760,7 +3803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>435</v>
       </c>
@@ -3782,7 +3825,7 @@
       <c r="J101" s="5"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>435</v>
       </c>
@@ -3804,7 +3847,7 @@
       <c r="J102" s="5"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>435</v>
       </c>
@@ -3826,7 +3869,7 @@
       <c r="J103" s="5"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>435</v>
       </c>
@@ -3849,7 +3892,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>435</v>
       </c>
@@ -3869,7 +3912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>435</v>
       </c>
@@ -3889,7 +3932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>435</v>
       </c>
@@ -3909,7 +3952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>435</v>
       </c>
@@ -3929,7 +3972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>435</v>
       </c>
@@ -3949,7 +3992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>435</v>
       </c>
@@ -3969,7 +4012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>435</v>
       </c>
@@ -3989,7 +4032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>435</v>
       </c>
@@ -4009,7 +4052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>435</v>
       </c>
@@ -4029,7 +4072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>435</v>
       </c>
@@ -4049,7 +4092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>435</v>
       </c>
@@ -4069,7 +4112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>435</v>
       </c>
@@ -4089,7 +4132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>435</v>
       </c>
@@ -4109,7 +4152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>435</v>
       </c>
@@ -4129,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>435</v>
       </c>
@@ -4149,7 +4192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>435</v>
       </c>
@@ -4169,7 +4212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>435</v>
       </c>
@@ -4189,7 +4232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>435</v>
       </c>
@@ -4209,7 +4252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>435</v>
       </c>
@@ -4229,7 +4272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>435</v>
       </c>
@@ -4249,7 +4292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>435</v>
       </c>
@@ -4269,7 +4312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>435</v>
       </c>
@@ -4289,7 +4332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>435</v>
       </c>
@@ -4309,7 +4352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>435</v>
       </c>
@@ -4329,7 +4372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>435</v>
       </c>
@@ -4349,7 +4392,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>435</v>
       </c>
@@ -4369,7 +4412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>435</v>
       </c>
@@ -4389,7 +4432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>435</v>
       </c>
@@ -4409,7 +4452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>435</v>
       </c>
@@ -4429,7 +4472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>435</v>
       </c>
@@ -4449,7 +4492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>435</v>
       </c>
@@ -4469,7 +4512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>435</v>
       </c>
@@ -4489,7 +4532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>435</v>
       </c>
@@ -4509,7 +4552,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>435</v>
       </c>
@@ -4529,7 +4572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>435</v>
       </c>
@@ -4549,7 +4592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>435</v>
       </c>
@@ -4569,7 +4612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>435</v>
       </c>
@@ -4592,7 +4635,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>435</v>
       </c>
@@ -4612,7 +4655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>435</v>
       </c>
@@ -4632,7 +4675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>435</v>
       </c>
@@ -4652,7 +4695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>435</v>
       </c>
@@ -4672,7 +4715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>435</v>
       </c>
@@ -4692,7 +4735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>435</v>
       </c>
@@ -4712,7 +4755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>435</v>
       </c>
@@ -4732,7 +4775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>435</v>
       </c>
@@ -4752,7 +4795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>435</v>
       </c>
@@ -4772,7 +4815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>435</v>
       </c>
@@ -4792,7 +4835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>435</v>
       </c>
@@ -4812,7 +4855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>435</v>
       </c>
@@ -4832,7 +4875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>435</v>
       </c>
@@ -4852,7 +4895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>435</v>
       </c>
@@ -4872,7 +4915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>435</v>
       </c>
@@ -4892,7 +4935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>435</v>
       </c>
@@ -4912,7 +4955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>435</v>
       </c>
@@ -4932,7 +4975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>435</v>
       </c>
@@ -4952,7 +4995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>435</v>
       </c>
@@ -4972,7 +5015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>435</v>
       </c>
@@ -4992,7 +5035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>435</v>
       </c>
@@ -5012,7 +5055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>435</v>
       </c>
@@ -5032,7 +5075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>435</v>
       </c>
@@ -5052,7 +5095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>435</v>
       </c>
@@ -5072,7 +5115,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>435</v>
       </c>
@@ -5092,7 +5135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>435</v>
       </c>
@@ -5112,7 +5155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>435</v>
       </c>
@@ -5132,7 +5175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>435</v>
       </c>
@@ -5152,7 +5195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>435</v>
       </c>
@@ -5172,7 +5215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>435</v>
       </c>
@@ -5192,7 +5235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>435</v>
       </c>
@@ -5212,7 +5255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="173" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>435</v>
       </c>
@@ -5232,7 +5275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>435</v>
       </c>
@@ -5252,7 +5295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>435</v>
       </c>
@@ -5272,7 +5315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>435</v>
       </c>
@@ -5295,7 +5338,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="177" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>435</v>
       </c>
@@ -5315,7 +5358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="178" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>435</v>
       </c>
@@ -5335,7 +5378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="179" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>435</v>
       </c>
@@ -5355,7 +5398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="180" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>435</v>
       </c>
@@ -5375,7 +5418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>435</v>
       </c>
@@ -5395,7 +5438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="182" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>435</v>
       </c>
@@ -5415,7 +5458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="183" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>435</v>
       </c>
@@ -5435,7 +5478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="184" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>435</v>
       </c>
@@ -5455,7 +5498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="185" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>435</v>
       </c>
@@ -5475,7 +5518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="186" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>435</v>
       </c>
@@ -5495,7 +5538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="187" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>435</v>
       </c>
@@ -5515,7 +5558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="188" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>435</v>
       </c>
@@ -5535,7 +5578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="189" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>435</v>
       </c>
@@ -5555,7 +5598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="190" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>435</v>
       </c>
@@ -5575,7 +5618,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="191" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>435</v>
       </c>
@@ -5595,7 +5638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="192" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>435</v>
       </c>
@@ -5615,7 +5658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="193" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>435</v>
       </c>
@@ -5635,7 +5678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="194" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>435</v>
       </c>
@@ -5655,7 +5698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="195" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>435</v>
       </c>
@@ -5675,7 +5718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="196" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>435</v>
       </c>
@@ -5695,7 +5738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="197" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>435</v>
       </c>
@@ -5715,7 +5758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="198" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>435</v>
       </c>
@@ -5735,7 +5778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="199" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>435</v>
       </c>
@@ -5755,7 +5798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="200" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>435</v>
       </c>
@@ -5775,7 +5818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="201" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>435</v>
       </c>
@@ -5795,7 +5838,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="202" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>435</v>
       </c>
@@ -5815,7 +5858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="203" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>435</v>
       </c>
@@ -5835,7 +5878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="204" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>435</v>
       </c>
@@ -5855,7 +5898,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="205" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>435</v>
       </c>
@@ -5875,7 +5918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="206" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>435</v>
       </c>
@@ -5895,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="207" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>435</v>
       </c>
@@ -5915,7 +5958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="208" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>435</v>
       </c>
@@ -5935,7 +5978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="209" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>435</v>
       </c>
@@ -5956,7 +5999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="210" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>435</v>
       </c>
@@ -5977,7 +6020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="211" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>435</v>
       </c>
@@ -5997,7 +6040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="212" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>435</v>
       </c>
@@ -6017,7 +6060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="213" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>435</v>
       </c>
@@ -6037,7 +6080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="214" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>435</v>
       </c>
@@ -6057,7 +6100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="215" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>435</v>
       </c>
@@ -6080,7 +6123,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="216" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>435</v>
       </c>
@@ -6100,7 +6143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="217" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>435</v>
       </c>
@@ -6120,7 +6163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="218" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>435</v>
       </c>
@@ -6140,7 +6183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="219" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>435</v>
       </c>
@@ -6160,7 +6203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="220" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>435</v>
       </c>
@@ -6180,7 +6223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="221" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>435</v>
       </c>
@@ -6200,7 +6243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="222" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>435</v>
       </c>
@@ -6220,7 +6263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="223" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>435</v>
       </c>
@@ -6240,7 +6283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="224" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>435</v>
       </c>
@@ -6260,7 +6303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="225" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>435</v>
       </c>
@@ -6280,7 +6323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="226" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>435</v>
       </c>
@@ -6300,7 +6343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="227" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>435</v>
       </c>
@@ -6320,7 +6363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="228" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>435</v>
       </c>
@@ -6340,7 +6383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="229" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>435</v>
       </c>
@@ -6360,7 +6403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="230" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>435</v>
       </c>
@@ -6380,7 +6423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="231" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>435</v>
       </c>
@@ -6400,7 +6443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="232" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>435</v>
       </c>
@@ -6420,7 +6463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="233" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>435</v>
       </c>
@@ -6440,7 +6483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="234" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>435</v>
       </c>
@@ -6460,7 +6503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="235" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>435</v>
       </c>
@@ -6480,7 +6523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="236" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>435</v>
       </c>
@@ -6500,7 +6543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="237" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>435</v>
       </c>
@@ -6520,7 +6563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="238" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>435</v>
       </c>
@@ -6540,7 +6583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="239" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>435</v>
       </c>
@@ -6560,7 +6603,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="240" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>435</v>
       </c>
@@ -6580,7 +6623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="241" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>435</v>
       </c>
@@ -6600,7 +6643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="242" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>435</v>
       </c>
@@ -6620,7 +6663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="243" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>435</v>
       </c>
@@ -6640,7 +6683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="244" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>435</v>
       </c>
@@ -6660,7 +6703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="245" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>435</v>
       </c>
@@ -6680,7 +6723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="246" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>435</v>
       </c>
@@ -6700,7 +6743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="247" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>435</v>
       </c>
@@ -6720,7 +6763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="248" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>435</v>
       </c>
@@ -6740,7 +6783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="249" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>435</v>
       </c>
@@ -6760,7 +6803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="250" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>435</v>
       </c>
@@ -6780,7 +6823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="251" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>435</v>
       </c>
@@ -6803,7 +6846,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="252" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>435</v>
       </c>
@@ -6823,7 +6866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="253" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>435</v>
       </c>
@@ -6843,7 +6886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="254" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>435</v>
       </c>
@@ -6863,7 +6906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="255" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>435</v>
       </c>
@@ -6883,7 +6926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="256" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>435</v>
       </c>
@@ -6903,7 +6946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="257" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>435</v>
       </c>
@@ -6923,7 +6966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="258" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>435</v>
       </c>
@@ -6943,7 +6986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="259" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>435</v>
       </c>
@@ -6963,7 +7006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="260" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>435</v>
       </c>
@@ -6983,7 +7026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="261" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>435</v>
       </c>
@@ -7003,7 +7046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="262" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>435</v>
       </c>
@@ -7023,7 +7066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="263" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>435</v>
       </c>
@@ -7043,7 +7086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="264" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>435</v>
       </c>
@@ -7063,7 +7106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="265" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="265" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>435</v>
       </c>
@@ -7083,7 +7126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="266" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>435</v>
       </c>
@@ -7103,7 +7146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="267" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>435</v>
       </c>
@@ -7123,7 +7166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="268" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>435</v>
       </c>
@@ -7143,7 +7186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="269" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>435</v>
       </c>
@@ -7163,7 +7206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="270" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="270" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>435</v>
       </c>
@@ -7183,7 +7226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="271" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>435</v>
       </c>
@@ -7203,7 +7246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="272" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>435</v>
       </c>
@@ -7223,7 +7266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="273" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>435</v>
       </c>
@@ -7243,7 +7286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="274" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>435</v>
       </c>
@@ -7263,7 +7306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="275" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>435</v>
       </c>
@@ -7283,7 +7326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="276" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>435</v>
       </c>
@@ -7303,7 +7346,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="277" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>435</v>
       </c>
@@ -7323,7 +7366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="278" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>435</v>
       </c>
@@ -7343,7 +7386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="279" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>435</v>
       </c>
@@ -7363,7 +7406,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="280" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>435</v>
       </c>
@@ -7383,7 +7426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="281" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>435</v>
       </c>
@@ -7403,7 +7446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="282" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>435</v>
       </c>
@@ -7423,7 +7466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="283" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>435</v>
       </c>
@@ -7443,7 +7486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="284" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>435</v>
       </c>
@@ -7463,7 +7506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="285" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>435</v>
       </c>
@@ -7483,7 +7526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="286" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>435</v>
       </c>
@@ -7503,7 +7546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="287" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>435</v>
       </c>
@@ -7523,7 +7566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="288" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>435</v>
       </c>
@@ -7543,7 +7586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="289" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>435</v>
       </c>
@@ -7563,7 +7606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="290" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="290" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>435</v>
       </c>
@@ -7583,7 +7626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="291" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>435</v>
       </c>
@@ -7606,7 +7649,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="292" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="292" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>435</v>
       </c>
@@ -7626,7 +7669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="293" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="293" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>435</v>
       </c>
@@ -7646,7 +7689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="294" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>435</v>
       </c>
@@ -7666,7 +7709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="295" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>435</v>
       </c>
@@ -7686,7 +7729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="296" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>435</v>
       </c>
@@ -7706,7 +7749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="297" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>435</v>
       </c>
@@ -7726,7 +7769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="298" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>435</v>
       </c>
@@ -7746,7 +7789,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="299" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="299" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>435</v>
       </c>
@@ -7766,7 +7809,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="300" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>435</v>
       </c>
@@ -7786,7 +7829,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="301" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>435</v>
       </c>
@@ -7806,7 +7849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="302" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>435</v>
       </c>
@@ -7826,7 +7869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="303" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>435</v>
       </c>
@@ -7846,7 +7889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="304" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>435</v>
       </c>
@@ -7866,7 +7909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="305" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>435</v>
       </c>
@@ -7886,7 +7929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="306" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>435</v>
       </c>
@@ -7906,7 +7949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="307" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>435</v>
       </c>
@@ -7926,7 +7969,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="308" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="308" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>435</v>
       </c>
@@ -7946,7 +7989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="309" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="309" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>435</v>
       </c>
@@ -7966,7 +8009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="310" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>435</v>
       </c>
@@ -7986,7 +8029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="311" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="311" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>435</v>
       </c>
@@ -8006,7 +8049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="312" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>435</v>
       </c>
@@ -8029,7 +8072,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="313" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>435</v>
       </c>
@@ -8049,7 +8092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="314" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>435</v>
       </c>
@@ -8069,7 +8112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="315" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>435</v>
       </c>
@@ -8089,7 +8132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="316" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>435</v>
       </c>
@@ -8109,7 +8152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="317" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="317" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>435</v>
       </c>
@@ -8129,7 +8172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="318" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>435</v>
       </c>
@@ -8149,7 +8192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="319" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>435</v>
       </c>
@@ -8172,7 +8215,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="320" s="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>435</v>
       </c>
@@ -8192,7 +8235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="321" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>435</v>
       </c>
@@ -8212,7 +8255,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="322" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>435</v>
       </c>
@@ -8232,7 +8275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="323" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>435</v>
       </c>
@@ -8252,7 +8295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="324" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>435</v>
       </c>
@@ -8272,7 +8315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="325" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>435</v>
       </c>
@@ -8292,7 +8335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="326" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>435</v>
       </c>
@@ -8312,7 +8355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="327" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>435</v>
       </c>
@@ -8335,7 +8378,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="328" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>435</v>
       </c>
@@ -8355,7 +8398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="329" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>435</v>
       </c>
@@ -8375,7 +8418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="330" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>435</v>
       </c>
@@ -8395,7 +8438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="331" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="331" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>435</v>
       </c>
@@ -8415,7 +8458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="332" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="332" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>435</v>
       </c>
@@ -8435,7 +8478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="333" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="333" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>435</v>
       </c>
@@ -8455,7 +8498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="334" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>435</v>
       </c>
@@ -8475,7 +8518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="335" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="335" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>435</v>
       </c>
@@ -8498,7 +8541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="336" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>435</v>
       </c>
@@ -8521,7 +8564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="337" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>435</v>
       </c>
@@ -8541,7 +8584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="338" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="338" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>435</v>
       </c>
@@ -8561,7 +8604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="339" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="339" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>435</v>
       </c>
@@ -8581,7 +8624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="340" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="340" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>435</v>
       </c>
@@ -8601,7 +8644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="341" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>435</v>
       </c>
@@ -8624,7 +8667,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="342" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="342" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>435</v>
       </c>
@@ -8647,7 +8690,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="343" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="343" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>435</v>
       </c>
@@ -8667,7 +8710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="344" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>435</v>
       </c>
@@ -8687,7 +8730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="345" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>435</v>
       </c>
@@ -8707,7 +8750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="346" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="346" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>435</v>
       </c>
@@ -8727,7 +8770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="347" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="347" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>435</v>
       </c>
@@ -8747,7 +8790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="348" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="348" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>435</v>
       </c>
@@ -8767,7 +8810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="349" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>435</v>
       </c>
@@ -8787,7 +8830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="350" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>435</v>
       </c>
@@ -8807,7 +8850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="351" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="351" s="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>435</v>
       </c>
@@ -8828,30 +8871,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>